--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43734</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43775</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43965</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44887</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45044</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43467</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43479</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43496</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43552</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43570</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43602</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43734</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43775</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43965</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44887</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45044</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43467</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43479</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43496</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43552</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43570</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43602</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43734</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43775</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43965</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44887</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45044</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43467</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43479</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43496</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43552</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43570</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43602</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43734</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43775</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43965</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44887</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45044</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43467</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43479</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43496</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43552</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43570</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43602</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43734</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43775</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43965</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44887</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45044</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43467</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43479</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43496</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43552</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43570</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43602</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43734</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43775</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43965</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44887</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45044</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43467</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43479</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43496</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43552</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43570</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43602</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43734</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43775</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43965</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44887</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45044</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43467</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43479</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43496</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43552</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43570</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43602</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43734</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43775</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43965</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44887</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45044</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43467</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43479</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43496</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43552</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43570</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43602</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y125"/>
+  <dimension ref="A1:Y126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43734</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43775</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43965</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44887</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45044</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43467</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43479</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43496</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43552</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43570</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43602</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="R124" s="2" t="inlineStr"/>
     </row>
-    <row r="125">
+    <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
           <t>A 39407-2023</t>
@@ -8056,7 +8056,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,6 +8102,68 @@
         <v>0</v>
       </c>
       <c r="R125" s="2" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>A 43335-2023</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>SJÖBO</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R126" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,27 +625,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 43832-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 43832-2018.xlsx", "A 43832-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 43832-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 43832-2018.png", "A 43832-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 43832-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 43832-2018.docx", "A 43832-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 43832-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 43832-2018.docx", "A 43832-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 43832-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 43832-2018.docx", "A 43832-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 43832-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 43832-2018.docx", "A 43832-2018")</f>
         <v/>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -712,27 +712,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 18969-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 18969-2023.xlsx", "A 18969-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 18969-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 18969-2023.png", "A 18969-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 18969-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 18969-2023.docx", "A 18969-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 18969-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 18969-2023.docx", "A 18969-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 18969-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 18969-2023.docx", "A 18969-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 18969-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 18969-2023.docx", "A 18969-2023")</f>
         <v/>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -798,27 +798,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 28059-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 28059-2019.xlsx", "A 28059-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 28059-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 28059-2019.png", "A 28059-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 28059-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 28059-2019.docx", "A 28059-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 28059-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 28059-2019.docx", "A 28059-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 28059-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 28059-2019.docx", "A 28059-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 28059-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 28059-2019.docx", "A 28059-2019")</f>
         <v/>
       </c>
     </row>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,27 +884,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 60100-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 60100-2020.xlsx", "A 60100-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 60100-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 60100-2020.png", "A 60100-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 60100-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 60100-2020.docx", "A 60100-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 60100-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 60100-2020.docx", "A 60100-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 60100-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 60100-2020.docx", "A 60100-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 60100-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 60100-2020.docx", "A 60100-2020")</f>
         <v/>
       </c>
     </row>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,27 +970,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 28929-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 28929-2022.xlsx", "A 28929-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 28929-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 28929-2022.png", "A 28929-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 28929-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 28929-2022.docx", "A 28929-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 28929-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 28929-2022.docx", "A 28929-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 28929-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 28929-2022.docx", "A 28929-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 28929-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 28929-2022.docx", "A 28929-2022")</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1056,27 +1056,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 26736-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 26736-2023.xlsx", "A 26736-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 26736-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 26736-2023.png", "A 26736-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 26736-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 26736-2023.docx", "A 26736-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 26736-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 26736-2023.docx", "A 26736-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 26736-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 26736-2023.docx", "A 26736-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 26736-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 26736-2023.docx", "A 26736-2023")</f>
         <v/>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1141,27 +1141,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 36135-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 36135-2018.xlsx", "A 36135-2018")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 36135-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 36135-2018.png", "A 36135-2018")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 36135-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 36135-2018.docx", "A 36135-2018")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 36135-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 36135-2018.docx", "A 36135-2018")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 36135-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 36135-2018.docx", "A 36135-2018")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 36135-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 36135-2018.docx", "A 36135-2018")</f>
         <v/>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1226,27 +1226,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 2124-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 2124-2019.xlsx", "A 2124-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 2124-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 2124-2019.png", "A 2124-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 2124-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 2124-2019.docx", "A 2124-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 2124-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 2124-2019.docx", "A 2124-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 2124-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 2124-2019.docx", "A 2124-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 2124-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 2124-2019.docx", "A 2124-2019")</f>
         <v/>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,27 +1311,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 20427-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 20427-2019.xlsx", "A 20427-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 20427-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 20427-2019.png", "A 20427-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 20427-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 20427-2019.docx", "A 20427-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 20427-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 20427-2019.docx", "A 20427-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 20427-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 20427-2019.docx", "A 20427-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 20427-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 20427-2019.docx", "A 20427-2019")</f>
         <v/>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
         <v>43734</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1396,27 +1396,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 51847-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 51847-2019.xlsx", "A 51847-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 51847-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 51847-2019.png", "A 51847-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 51847-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 51847-2019.docx", "A 51847-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 51847-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 51847-2019.docx", "A 51847-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 51847-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 51847-2019.docx", "A 51847-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 51847-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 51847-2019.docx", "A 51847-2019")</f>
         <v/>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
         <v>43775</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1481,27 +1481,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 59414-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 59414-2019.xlsx", "A 59414-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 59414-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 59414-2019.png", "A 59414-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 59414-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 59414-2019.docx", "A 59414-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 59414-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 59414-2019.docx", "A 59414-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 59414-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 59414-2019.docx", "A 59414-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 59414-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 59414-2019.docx", "A 59414-2019")</f>
         <v/>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
         <v>43965</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1566,27 +1566,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 23029-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 23029-2020.xlsx", "A 23029-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 23029-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 23029-2020.png", "A 23029-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 23029-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 23029-2020.docx", "A 23029-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 23029-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 23029-2020.docx", "A 23029-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 23029-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 23029-2020.docx", "A 23029-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 23029-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 23029-2020.docx", "A 23029-2020")</f>
         <v/>
       </c>
     </row>
@@ -1600,7 +1600,7 @@
         <v>44174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1651,27 +1651,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 66175-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 66175-2020.xlsx", "A 66175-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 66175-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 66175-2020.png", "A 66175-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 66175-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 66175-2020.docx", "A 66175-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 66175-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 66175-2020.docx", "A 66175-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 66175-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 66175-2020.docx", "A 66175-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 66175-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 66175-2020.docx", "A 66175-2020")</f>
         <v/>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
         <v>44887</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,27 +1736,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 56294-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 56294-2022.xlsx", "A 56294-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 56294-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 56294-2022.png", "A 56294-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 56294-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 56294-2022.docx", "A 56294-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 56294-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 56294-2022.docx", "A 56294-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 56294-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 56294-2022.docx", "A 56294-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 56294-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 56294-2022.docx", "A 56294-2022")</f>
         <v/>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
         <v>45044</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1821,27 +1821,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 18971-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 18971-2023.xlsx", "A 18971-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 18971-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 18971-2023.png", "A 18971-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 18971-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 18971-2023.docx", "A 18971-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 18971-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 18971-2023.docx", "A 18971-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 18971-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 18971-2023.docx", "A 18971-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 18971-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 18971-2023.docx", "A 18971-2023")</f>
         <v/>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43467</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43479</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43496</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43552</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43570</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43602</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>45183</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43734</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43775</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43965</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44887</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45044</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43467</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43479</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43496</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43552</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43570</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43602</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>45183</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43734</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43775</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43965</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44887</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45044</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43467</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43479</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43496</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43552</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43570</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43602</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>45183</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43734</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43775</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43965</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44887</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45044</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43467</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43479</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43496</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43552</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43570</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43602</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>45183</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y126"/>
+  <dimension ref="A1:Y127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43734</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43775</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43965</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44174</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44887</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45044</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43467</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43479</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43496</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43552</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43570</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43602</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="R125" s="2" t="inlineStr"/>
     </row>
-    <row r="126">
+    <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
           <t>A 43335-2023</t>
@@ -8113,7 +8113,7 @@
         <v>45183</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8164,6 +8164,68 @@
         <v>0</v>
       </c>
       <c r="R126" s="2" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>A 44580-2023</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C127" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>SJÖBO</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1338,14 +1338,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 51847-2019</t>
+          <t>A 24820-2019</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>43734</v>
+        <v>43602</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1358,23 +1358,23 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
@@ -1382,55 +1382,55 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Kamtuffmossa</t>
+          <t>Dvärgjohannesört</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 51847-2019.xlsx", "A 51847-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 24820-2019.xlsx", "A 24820-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 51847-2019.png", "A 51847-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 24820-2019.png", "A 24820-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 51847-2019.docx", "A 51847-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 24820-2019.docx", "A 24820-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 51847-2019.docx", "A 51847-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 24820-2019.docx", "A 24820-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 51847-2019.docx", "A 51847-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 24820-2019.docx", "A 24820-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 51847-2019.docx", "A 51847-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 24820-2019.docx", "A 24820-2019")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 59414-2019</t>
+          <t>A 51847-2019</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>43775</v>
+        <v>43734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1443,19 +1443,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1467,55 +1467,55 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Fläcklungört</t>
+          <t>Kamtuffmossa</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 59414-2019.xlsx", "A 59414-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 51847-2019.xlsx", "A 51847-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 59414-2019.png", "A 59414-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 51847-2019.png", "A 51847-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 59414-2019.docx", "A 59414-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 51847-2019.docx", "A 51847-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 59414-2019.docx", "A 59414-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 51847-2019.docx", "A 51847-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 59414-2019.docx", "A 59414-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 51847-2019.docx", "A 51847-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 59414-2019.docx", "A 59414-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 51847-2019.docx", "A 51847-2019")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 23029-2020</t>
+          <t>A 59414-2019</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>43965</v>
+        <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1528,22 +1528,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>9.300000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1562,45 +1562,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Dvärgjohannesört</t>
+          <t>Fläcklungört</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 23029-2020.xlsx", "A 23029-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 59414-2019.xlsx", "A 59414-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 23029-2020.png", "A 23029-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 59414-2019.png", "A 59414-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 23029-2020.docx", "A 23029-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 59414-2019.docx", "A 59414-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 23029-2020.docx", "A 23029-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 59414-2019.docx", "A 59414-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 23029-2020.docx", "A 23029-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 59414-2019.docx", "A 59414-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 23029-2020.docx", "A 23029-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 59414-2019.docx", "A 59414-2019")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 66175-2020</t>
+          <t>A 23029-2020</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44174</v>
+        <v>43965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1613,23 +1613,23 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
@@ -1637,55 +1637,55 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Strävlosta</t>
+          <t>Dvärgjohannesört</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 66175-2020.xlsx", "A 66175-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 23029-2020.xlsx", "A 23029-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 66175-2020.png", "A 66175-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 23029-2020.png", "A 23029-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 66175-2020.docx", "A 66175-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 23029-2020.docx", "A 23029-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 66175-2020.docx", "A 66175-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 23029-2020.docx", "A 23029-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 66175-2020.docx", "A 66175-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 23029-2020.docx", "A 23029-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 66175-2020.docx", "A 66175-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 23029-2020.docx", "A 23029-2020")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 56294-2022</t>
+          <t>A 66175-2020</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44887</v>
+        <v>44174</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,41 +1736,41 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 56294-2022.xlsx", "A 56294-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 66175-2020.xlsx", "A 66175-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 56294-2022.png", "A 56294-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 66175-2020.png", "A 66175-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 56294-2022.docx", "A 56294-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 66175-2020.docx", "A 66175-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 56294-2022.docx", "A 56294-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 66175-2020.docx", "A 66175-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 56294-2022.docx", "A 56294-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 66175-2020.docx", "A 66175-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 56294-2022.docx", "A 56294-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 66175-2020.docx", "A 66175-2020")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 18971-2023</t>
+          <t>A 56294-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45044</v>
+        <v>44887</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>19.4</v>
+        <v>4.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1817,45 +1817,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Stor häxört</t>
+          <t>Strävlosta</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 18971-2023.xlsx", "A 18971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 56294-2022.xlsx", "A 56294-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 18971-2023.png", "A 18971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 56294-2022.png", "A 56294-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 18971-2023.docx", "A 18971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 56294-2022.docx", "A 56294-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 18971-2023.docx", "A 18971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 56294-2022.docx", "A 56294-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 18971-2023.docx", "A 18971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 56294-2022.docx", "A 56294-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 18971-2023.docx", "A 18971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 56294-2022.docx", "A 56294-2022")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 43749-2018</t>
+          <t>A 18971-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>43357</v>
+        <v>45044</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1868,13 +1868,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>19.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,21 +1898,49 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Stor häxört</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/artfynd/A 18971-2023.xlsx", "A 18971-2023")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/kartor/A 18971-2023.png", "A 18971-2023")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomål/A 18971-2023.docx", "A 18971-2023")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/klagomålsmail/A 18971-2023.docx", "A 18971-2023")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsyn/A 18971-2023.docx", "A 18971-2023")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SJOBO/tillsynsmail/A 18971-2023.docx", "A 18971-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 43772-2018</t>
+          <t>A 43749-2018</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1925,7 +1953,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1962,14 +1990,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 43851-2018</t>
+          <t>A 43772-2018</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2019,14 +2047,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 45712-2018</t>
+          <t>A 43851-2018</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>43364</v>
+        <v>43357</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2039,7 +2067,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.1</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2076,14 +2104,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 60850-2018</t>
+          <t>A 45712-2018</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43410</v>
+        <v>43364</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2096,7 +2124,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.5</v>
+        <v>6.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2133,14 +2161,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 2136-2019</t>
+          <t>A 60850-2018</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>43467</v>
+        <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2153,7 +2181,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2190,14 +2218,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 4851-2019</t>
+          <t>A 2136-2019</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43479</v>
+        <v>43467</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2210,7 +2238,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2247,14 +2275,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 7106-2019</t>
+          <t>A 4851-2019</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43496</v>
+        <v>43479</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2267,7 +2295,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2304,14 +2332,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 17433-2019</t>
+          <t>A 7106-2019</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43552</v>
+        <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2324,7 +2352,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.1</v>
+        <v>0.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2361,14 +2389,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 19964-2019</t>
+          <t>A 17433-2019</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43570</v>
+        <v>43552</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2381,7 +2409,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.1</v>
+        <v>5.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2418,14 +2446,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 22353-2019</t>
+          <t>A 19964-2019</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43585</v>
+        <v>43570</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2438,7 +2466,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7.5</v>
+        <v>0.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2475,14 +2503,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 24818-2019</t>
+          <t>A 22353-2019</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43602</v>
+        <v>43585</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2495,7 +2523,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2532,14 +2560,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 24809-2019</t>
+          <t>A 24818-2019</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2552,7 +2580,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2589,14 +2617,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 24820-2019</t>
+          <t>A 24809-2019</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2609,7 +2637,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2653,7 +2681,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2710,7 +2738,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2767,7 +2795,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2852,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2909,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2966,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +3023,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3080,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3137,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3194,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3251,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3308,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3365,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3422,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3479,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3508,7 +3536,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3565,7 +3593,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3622,7 +3650,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3679,7 +3707,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3736,7 +3764,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3826,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3888,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3945,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +4002,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4059,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4116,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4173,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4230,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4287,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4344,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4401,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4458,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4515,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4544,7 +4572,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4634,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4691,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4748,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4805,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4862,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4919,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4948,7 +4976,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5005,7 +5033,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5062,7 +5090,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5119,7 +5147,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5176,7 +5204,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5233,7 +5261,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5290,7 +5318,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5347,7 +5375,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5404,7 +5432,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5461,7 +5489,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5518,7 +5546,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5575,7 +5603,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5632,7 +5660,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5689,7 +5717,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5746,7 +5774,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5803,7 +5831,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5860,7 +5888,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5917,7 +5945,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5974,7 +6002,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6031,7 +6059,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6121,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6178,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6207,7 +6235,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6264,7 +6292,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6321,7 +6349,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6378,7 +6406,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6463,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6520,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6549,7 +6577,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6606,7 +6634,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6663,7 +6691,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6720,7 +6748,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6810,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6872,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6929,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6986,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7043,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7100,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7157,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7214,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7271,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7328,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7385,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7447,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7504,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7533,7 +7561,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7590,7 +7618,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7647,7 +7675,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7704,7 +7732,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7766,7 +7794,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7856,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7913,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7970,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +8027,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8056,7 +8084,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8113,7 +8141,7 @@
         <v>45183</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8175,7 +8203,7 @@
         <v>45189</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43602</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>43965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44174</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>44887</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45044</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43357</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43364</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43467</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43479</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43552</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43570</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43585</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>45183</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>45189</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43602</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>43965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44174</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>44887</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45044</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43357</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43364</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43467</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43479</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43552</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43570</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43585</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>45183</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>45189</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43602</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>43965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44174</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>44887</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45044</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43357</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43364</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43467</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43479</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43552</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43570</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43585</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>45183</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>45189</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y127"/>
+  <dimension ref="A1:Y128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43357</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45044</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44151</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43327</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43467</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43571</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43602</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43734</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43775</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>43965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44174</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>44887</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45044</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43357</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43357</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43364</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43467</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43479</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43552</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43570</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43585</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43602</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43612</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43689</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43734</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43734</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43734</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43734</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43738</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43766</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43816</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43816</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43816</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43874</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43874</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43874</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43887</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>43887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43962</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43966</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>44067</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>44074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>44127</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>44162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44174</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>44174</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44174</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>44203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>44209</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44278</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44284</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44428</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44449</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44449</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44449</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44449</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>44477</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44525</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>44538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44575</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44600</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44643</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>44656</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>44659</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>44664</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44706</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44749</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44783</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44887</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44948</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44949</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>45014</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>45029</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>45044</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>45090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>45091</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>45104</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>45104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>45105</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>45114</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>45140</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>45142</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>45152</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>45183</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
       </c>
       <c r="R126" s="2" t="inlineStr"/>
     </row>
-    <row r="127">
+    <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
           <t>A 44580-2023</t>
@@ -8203,7 +8203,7 @@
         <v>45189</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8254,6 +8254,63 @@
         <v>0</v>
       </c>
       <c r="R127" s="2" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>A 47943-2023</t>
+        </is>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C128" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>SJÖBO</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
